--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.031120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.031120.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4195,12 +4195,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4233,12 +4233,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4541,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5301,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5681,12 +5681,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5909,12 +5909,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6289,12 +6289,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6707,12 +6707,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6897,12 +6897,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7049,12 +7049,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7201,12 +7201,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7429,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7733,12 +7733,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7885,12 +7885,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7999,12 +7999,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8645,12 +8645,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9291,12 +9291,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9519,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9671,12 +9671,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10507,12 +10507,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10621,12 +10621,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11267,12 +11267,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12861,12 +12861,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13355,12 +13355,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13621,12 +13621,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13773,12 +13773,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
